--- a/перевірка.xlsx
+++ b/перевірка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tylika\Desktop\EventLabDemo\src\ConcertSystemMVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADB67E5-768D-4199-B0FC-773F40A10806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDDA266-7380-438B-A7FB-AB7F0EFC05E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37BB281F-0184-4EF8-B4DE-9C1A23FFDE93}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>Київ</t>
   </si>
   <si>
-    <t>Крила Мрій</t>
+    <t xml:space="preserve">Крила </t>
   </si>
 </sst>
 </file>
@@ -413,9 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926DC556-CDFC-454E-9918-80F6BECB4C13}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/перевірка.xlsx
+++ b/перевірка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tylika\Desktop\EventLabDemo\src\ConcertSystemMVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDDA266-7380-438B-A7FB-AB7F0EFC05E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F79A84-B670-44EC-8E69-C56B650B39CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37BB281F-0184-4EF8-B4DE-9C1A23FFDE93}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Артист</t>
   </si>
@@ -51,13 +48,13 @@
     <t>Всього квитків</t>
   </si>
   <si>
+    <t>Київ</t>
+  </si>
+  <si>
+    <t>Крила Мрій</t>
+  </si>
+  <si>
     <t>Доступні квитки</t>
-  </si>
-  <si>
-    <t>Київ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крила </t>
   </si>
 </sst>
 </file>
@@ -411,9 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926DC556-CDFC-454E-9918-80F6BECB4C13}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -422,7 +421,7 @@
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,27 +435,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45816.791666666664</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45816.791666666664</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>500</v>
       </c>
       <c r="E2">
         <v>500</v>
-      </c>
-      <c r="F2">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
